--- a/files/开发计划表.xlsx
+++ b/files/开发计划表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiner/Desktop/PlaneGame/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19116" windowHeight="8856"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24620" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="兼容性报表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>功能序号</t>
   </si>
@@ -91,26 +96,22 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>战机类型搭建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有性能参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同战机的等级、攻击力、防御力、速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>王子昂</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>战机类型搭建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有性能参数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同战机的等级、攻击力、防御力、速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王子昂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.8.24</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -295,10 +296,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>待开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>计分系统、计时系统以及胜负的判定</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -314,10 +311,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -344,13 +337,19 @@
   </si>
   <si>
     <t>Excel 97-2003</t>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+  </si>
+  <si>
+    <t>刘钟博</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -400,22 +399,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -433,17 +425,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,7 +453,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -475,23 +462,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -499,11 +486,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -512,7 +499,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -520,22 +507,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,40 +531,40 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -585,27 +572,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,23 +600,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,30 +658,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,44 +697,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,31 +787,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,13 +826,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,57 +844,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
-    <cellStyle name="常规_Sheet1_1" xfId="3"/>
-    <cellStyle name="常规_Sheet1_3" xfId="4"/>
-    <cellStyle name="好" xfId="5" builtinId="26"/>
-    <cellStyle name="适中" xfId="6" builtinId="28"/>
+  <cellStyles count="6">
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Sheet1" xfId="1"/>
+    <cellStyle name="常规_Sheet1_1" xfId="2"/>
+    <cellStyle name="常规_Sheet1_3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,37 +1165,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="1" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" customWidth="1"/>
-    <col min="9" max="9" width="13.8984375" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1244,11 +1223,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1264,16 +1243,16 @@
         <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="40"/>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1284,389 +1263,394 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="40"/>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="41"/>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
-        <v>2</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
-        <v>3</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41">
+        <v>4</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="F16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="38"/>
+    <row r="18" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="26"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A15"/>
@@ -1675,11 +1659,6 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -1690,14 +1669,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -1708,14 +1687,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -1732,105 +1711,105 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.796875" customWidth="1"/>
-    <col min="2" max="2" width="45.09765625" customWidth="1"/>
-    <col min="3" max="3" width="1.09765625" customWidth="1"/>
-    <col min="4" max="4" width="3.8984375" customWidth="1"/>
-    <col min="5" max="6" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="1.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="B4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="F6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="2:6" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54">
-        <v>3</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/开发计划表.xlsx
+++ b/files/开发计划表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiner/Desktop/PlaneGame/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\cocosProjects\PlaneGame\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24620" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24624" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>功能序号</t>
   </si>
@@ -75,144 +75,266 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">游戏各个界面的搭建以及界面间的跳转
+    <t>余连玮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘艳玥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子昂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方战机行为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家上下左右移动战机的交互</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机的移动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机的普通攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家随时让战机进行普通攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机属性参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值、能量值的实时更新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方战机行为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌机的出现和运动轨迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌机属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌机的生命值实时更新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能施放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>田逸昕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表人：潘艳玥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜负判定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏存档</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的施放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞检测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹、技能与敌机的碰撞，战机与障碍物的碰撞检测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌机创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌机阵型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss出现时的阵型设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍物设置和掉落补给、装备</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现游戏进度的存储和载入功能，建立数据库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计分系统、计时系统以及胜负的判定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发计划表.xls 兼容性报表</t>
+  </si>
+  <si>
+    <t>运行环境: 2017/8/25 8:29</t>
+  </si>
+  <si>
+    <t>如果工作簿以早期的文件格式保存或在早期版本的 Microsoft Excel 中打开，将无法使用下列功能。</t>
+  </si>
+  <si>
+    <t>轻微保真损失</t>
+  </si>
+  <si>
+    <t>发生次数</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>所选文件格式不支持此工作簿中某些单元格或样式包含的格式。这些格式将被转换为最相近的可用格式。</t>
+  </si>
+  <si>
+    <t>Excel 97-2003</t>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+  </si>
+  <si>
+    <t>刘钟博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏各个界面的搭建、优化以及界面间的跳转
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>余连玮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘艳玥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机类型搭建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有性能参数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同战机的等级、攻击力、防御力、速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王子昂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方战机行为</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家上下左右移动战机的交互</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机的移动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机的普通攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家随时让战机进行普通攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机属性参数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值、能量值的实时更新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方战机行为</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌机的出现和运动轨迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌机属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌机的生命值实时更新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚牧杰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能施放</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘钟博</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>田逸昕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>制表人：潘艳玥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐音效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入音乐音效以及对音量的控制</t>
+    <t>2017.8.29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机仓库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入音乐音效以及开关的控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可获得部件以及部件属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库建设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储装备、更换装备</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.27</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -220,136 +342,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜负判定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏存档</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能的施放</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞检测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹、技能与敌机的碰撞，战机与障碍物的碰撞检测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机部件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌机创建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌机阵型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss出现时的阵型设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>障碍物设置和掉落补给、装备</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现游戏进度的存储和载入功能，建立数据库</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家获得部件以及装备部件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.26</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.26</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>计分系统、计时系统以及胜负的判定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>注：本次迭代时间是2017.8.23-2017.8.28,开发状态一栏的选项是：待开发、开发中以及已完成这三个选项。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发计划表.xls 兼容性报表</t>
-  </si>
-  <si>
-    <t>运行环境: 2017/8/25 8:29</t>
-  </si>
-  <si>
-    <t>如果工作簿以早期的文件格式保存或在早期版本的 Microsoft Excel 中打开，将无法使用下列功能。</t>
-  </si>
-  <si>
-    <t>轻微保真损失</t>
-  </si>
-  <si>
-    <t>发生次数</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>所选文件格式不支持此工作簿中某些单元格或样式包含的格式。这些格式将被转换为最相近的可用格式。</t>
-  </si>
-  <si>
-    <t>Excel 97-2003</t>
-  </si>
-  <si>
-    <t>尚牧杰</t>
-  </si>
-  <si>
-    <t>刘钟博</t>
+    <t>2017.8.29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：本次迭代时间是2017.8.23-2017.8.29,开发状态一栏的选项是：待开发、开发中以及已完成这三个选项。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -400,15 +405,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,7 +423,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,11 +433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -658,7 +651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,9 +665,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,10 +729,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -754,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -766,20 +753,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,56 +828,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="1"/>
-    <cellStyle name="常规_Sheet1_1" xfId="2"/>
-    <cellStyle name="常规_Sheet1_3" xfId="3"/>
+  <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规_Sheet1_1" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规_Sheet1_3" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="好" xfId="4" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1162,39 +1151,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1223,11 +1212,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1237,415 +1226,420 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="53"/>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>3</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="16" t="s">
+      <c r="E10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>4</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31">
-        <v>2</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31">
-        <v>3</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41">
-        <v>4</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="H18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="41"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="A20:H21"/>
     <mergeCell ref="B16:B18"/>
@@ -1654,11 +1648,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -1668,15 +1657,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -1686,15 +1675,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -1704,112 +1693,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
-    <col min="3" max="3" width="1.1640625" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="0.796875" customWidth="1"/>
+    <col min="2" max="2" width="45.19921875" customWidth="1"/>
+    <col min="3" max="3" width="1.19921875" customWidth="1"/>
+    <col min="4" max="4" width="3.796875" customWidth="1"/>
+    <col min="5" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="2:6" ht="46" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="2:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26">
         <v>3</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="F8" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>